--- a/biology/Botanique/Tillandsia_lineatispica/Tillandsia_lineatispica.xlsx
+++ b/biology/Botanique/Tillandsia_lineatispica/Tillandsia_lineatispica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lineatispica Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète lineatispica signifie « à épi ligné » et se rapporte à l'aspect de l'inflorescence.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia lineatispica Mez in C.DC., Monogr. Phan. 9: 699, n° 40 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis rosulatis, utrinque dense lepidibus e majoribus, pallidis, supra adpressis subtus imbricatis obtectis ; inflorescentia subcompacte tripinnatim panniculata[sic] ; spicis 16-24-floris, dense flabellatis ; bracteis primariis quam ramuli axillares permulto brevioribus; bracteolis florigeris imbricatis, infimis paucis dorso minute lepidotis exceptis glabris, quam maxime elegantissimeque venis parallelis, prominentibus lineatis, quam sepala conspicue brevioribus ; floribus erectis ; sepalis antico libero posticis binis ad 4 mm. connatis ; petalis tubulose erectis, quam stamina brevioribus ; stylo perlongo. »
-Type : leg. Eggers, n° 3104 ; « Antillarum insula St. Jan. » ; Herb. Krug. et Urban[1].
+Type : leg. Eggers, n° 3104 ; « Antillarum insula St. Jan. » ; Herb. Krug. et Urban.
 leg Eggers, n° 3104, 1887-12-26 ; « St. Jan: Adrian 600' » ; (Holo- ou Iso- ?)typus B (B 10 0296332)
 leg Eggers, n° 3104, 1887-12-26 ; « St. Jan: Adrian 600' » ; (Holo- ou Iso- ?)typus B (B 10 0296333)
 leg Eggers, n° 3104, 1887-12-26 ; « St. Jan: Adrian 600' » ; (Holo- ou Iso- ?)typus B (B 10 0296334)</t>
@@ -548,7 +562,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,11 +622,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole,.
 Habitat : ?
-Altitude : 150-340 m[2].</t>
+Altitude : 150-340 m.</t>
         </is>
       </c>
     </row>
@@ -636,12 +656,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Antilles :
-Îles Vierges[2] :
-Saint John ( États-Unis)[1]
- Porto Rico[2]</t>
+Îles Vierges :
+Saint John ( États-Unis)
+ Porto Rico</t>
         </is>
       </c>
     </row>
@@ -670,6 +692,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
